--- a/책.xlsx
+++ b/책.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Documents/stock/gitgit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F82664-75C9-0D42-BE0A-002E4911F344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196746E8-40B6-CE49-B1B9-5C25837A0F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="책목록" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">책목록!$A$1:$F$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">책목록!$A$1:$F$174</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="407">
   <si>
     <t>KBS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1654,6 +1654,10 @@
   </si>
   <si>
     <t>조던 김장섭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자본주의</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1798,24 +1802,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2149,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="H198" sqref="H198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2210,1834 +2197,1837 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" t="s">
-        <v>291</v>
-      </c>
+      <c r="B5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
         <v>294</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="11" t="s">
+    <row r="9" spans="1:5">
+      <c r="B9" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" t="s">
-        <v>296</v>
-      </c>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
         <v>324</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="B18" s="8" t="s">
+    <row r="19" spans="1:6">
+      <c r="B19" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
         <v>326</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>321</v>
+        <v>346</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>352</v>
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>99</v>
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>359</v>
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>284</v>
+        <v>7</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s">
-        <v>95</v>
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>278</v>
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>93</v>
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>16</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>19</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>20</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4">
         <v>22</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>23</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" t="s">
-        <v>69</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>28</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>321</v>
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>33</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>338</v>
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>35</v>
-      </c>
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>36</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>37</v>
-      </c>
-      <c r="B56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>39</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>40</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
+        <v>41</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>43</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D63" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:4">
       <c r="A65">
+        <v>45</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
         <v>46</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
+    <row r="67" spans="1:4">
+      <c r="A67">
         <v>47</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
+    <row r="68" spans="1:4">
+      <c r="A68">
         <v>48</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>49</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:4">
       <c r="A69">
+        <v>49</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
         <v>50</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
+    <row r="71" spans="1:4">
+      <c r="A71">
         <v>51</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
+    <row r="72" spans="1:4">
+      <c r="A72">
         <v>52</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
+    <row r="73" spans="1:4">
+      <c r="A73">
         <v>53</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
+    <row r="74" spans="1:4">
+      <c r="A74">
         <v>54</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
+    <row r="75" spans="1:4">
+      <c r="A75">
         <v>55</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
+    <row r="76" spans="1:4">
+      <c r="A76">
         <v>56</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
+    <row r="77" spans="1:4">
+      <c r="A77">
         <v>57</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
+    <row r="78" spans="1:4">
+      <c r="A78">
         <v>58</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>59</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:4">
       <c r="A79">
+        <v>59</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
         <v>60</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" t="s">
-        <v>110</v>
-      </c>
-      <c r="E80" t="s">
-        <v>312</v>
-      </c>
-      <c r="F80" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="E81" t="s">
+        <v>312</v>
+      </c>
+      <c r="F81" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>4</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>5</v>
-      </c>
-      <c r="B84" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" t="s">
-        <v>116</v>
+        <v>4</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>6</v>
-      </c>
-      <c r="B85" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" t="s">
-        <v>118</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>7</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>316</v>
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>8</v>
-      </c>
-      <c r="B87" t="s">
-        <v>120</v>
-      </c>
-      <c r="C87" t="s">
-        <v>121</v>
+        <v>7</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
         <v>9</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D89" s="7" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="36">
-      <c r="A89">
+    <row r="90" spans="1:6" ht="36">
+      <c r="A90">
         <v>10</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C90" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="B90" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" t="s">
-        <v>124</v>
-      </c>
-      <c r="F90" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="B91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="F91" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="B93" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="B94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="B95" t="s">
         <v>131</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="B95" s="5" t="s">
+    <row r="96" spans="1:6">
+      <c r="B96" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C96" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="B96" s="3" t="s">
+    <row r="97" spans="2:4">
+      <c r="B97" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" t="s">
-        <v>133</v>
-      </c>
-      <c r="C97" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" t="s">
-        <v>140</v>
-      </c>
+      <c r="D100" s="2"/>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" t="s">
         <v>143</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="3" t="s">
+    <row r="104" spans="2:4">
+      <c r="B104" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C109" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C113" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C114" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C115" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
-      </c>
-      <c r="F116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C117" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="F117" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="B118" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C118" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="B119" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C119" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C120" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C122" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C123" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C124" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C126" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C127" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C128" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C129" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C130" t="s">
-        <v>198</v>
-      </c>
-      <c r="F130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C131" t="s">
-        <v>110</v>
+        <v>198</v>
+      </c>
+      <c r="F131" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C132" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C133" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C134" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="2:6">
       <c r="B136" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C136" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C137" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C138" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="139" spans="2:6">
       <c r="B139" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C139" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C140" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="142" spans="2:6">
       <c r="B142" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C142" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C143" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144" spans="2:6">
       <c r="B144" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C144" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145" spans="2:4">
       <c r="B145" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C145" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
+        <v>224</v>
+      </c>
+      <c r="C146" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
         <v>226</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="147" spans="2:4">
-      <c r="B147" s="2" t="s">
+    <row r="148" spans="2:4">
+      <c r="B148" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4">
-      <c r="B148" t="s">
-        <v>230</v>
-      </c>
-      <c r="C148" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="149" spans="2:4">
       <c r="B149" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C149" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="2:4">
       <c r="B150" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C150" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
+        <v>233</v>
+      </c>
+      <c r="C151" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" t="s">
         <v>235</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="152" spans="2:4">
-      <c r="B152" s="2" t="s">
+    <row r="153" spans="2:4">
+      <c r="B153" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4">
-      <c r="B153" t="s">
-        <v>238</v>
-      </c>
-      <c r="C153" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="154" spans="2:4">
       <c r="B154" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C154" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="2:4">
       <c r="B155" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C155" t="s">
-        <v>242</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="2:4">
       <c r="B156" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="2:4">
       <c r="B157" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C157" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" spans="2:4">
       <c r="B158" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C158" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="159" spans="2:4">
       <c r="B159" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C159" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160" spans="2:4">
       <c r="B160" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C160" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C161" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
     </row>
     <row r="162" spans="2:3">
       <c r="B162" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C162" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C163" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C164" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="2:3">
       <c r="B165" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C165" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C166" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C167" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C168" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C169" t="s">
-        <v>118</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C170" t="s">
-        <v>270</v>
+        <v>118</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C171" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="2:3">
       <c r="B172" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C172" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" t="s">
+        <v>273</v>
+      </c>
+      <c r="C173" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" t="s">
         <v>275</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="174" spans="2:3">
-      <c r="B174" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C174" s="2"/>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C175" s="2"/>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C176" s="2"/>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C177" s="2"/>
     </row>
     <row r="178" spans="2:4">
       <c r="B178" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>365</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" spans="2:4">
       <c r="B179" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="B181" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="182" spans="2:4">
       <c r="B182" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4">
-      <c r="B183" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="B184" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="185" spans="2:4">
-      <c r="B185" s="2" t="s">
+    <row r="186" spans="2:4">
+      <c r="B186" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="186" spans="2:4">
-      <c r="B186" s="12" t="s">
+    <row r="187" spans="2:4">
+      <c r="B187" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C187" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="D187" s="11" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4">
-      <c r="B187" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="B188" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>386</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189" spans="2:4">
       <c r="B189" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="2:4">
       <c r="B190" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="B191" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="B192" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="B193" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4045,76 +4035,84 @@
         <v>395</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="B195" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="B196" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="B197" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="B198" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="B199" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
         <v>5</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>281</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201">
-        <v>1</v>
-      </c>
-      <c r="B201" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
         <v>2</v>
       </c>
-      <c r="B202" t="s">
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203" t="s">
         <v>1</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F173" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F174" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/책.xlsx
+++ b/책.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196746E8-40B6-CE49-B1B9-5C25837A0F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733C9BD7-639D-2A44-B66C-DEC6AB573F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="410">
   <si>
     <t>KBS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1658,6 +1658,18 @@
   </si>
   <si>
     <t>자본주의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS자본주의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금리를 알면 부의 미래가 보인다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장태민</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1758,20 +1770,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2136,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2161,49 +2167,49 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
@@ -2230,10 +2236,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
@@ -2299,13 +2305,13 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>335</v>
       </c>
     </row>
@@ -2321,16 +2327,16 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>309</v>
       </c>
       <c r="F21" t="s">
@@ -2341,13 +2347,13 @@
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2355,13 +2361,13 @@
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2369,13 +2375,13 @@
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2383,13 +2389,13 @@
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -2408,13 +2414,13 @@
       <c r="A27">
         <v>7</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>359</v>
       </c>
     </row>
@@ -2422,13 +2428,13 @@
       <c r="A28">
         <v>8</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2436,13 +2442,13 @@
       <c r="A29">
         <v>9</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2461,13 +2467,13 @@
       <c r="A31">
         <v>11</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2522,37 +2528,37 @@
       <c r="A36">
         <v>16</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
         <v>17</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
         <v>18</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2560,13 +2566,13 @@
       <c r="A39">
         <v>19</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2574,13 +2580,13 @@
       <c r="A40">
         <v>20</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2588,27 +2594,27 @@
       <c r="A41">
         <v>21</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4">
+      <c r="A42">
         <v>22</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2616,25 +2622,25 @@
       <c r="A43">
         <v>23</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
         <v>24</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
@@ -2673,13 +2679,13 @@
       <c r="A48">
         <v>28</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2731,13 +2737,13 @@
       <c r="A53">
         <v>33</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="7" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2745,13 +2751,13 @@
       <c r="A54">
         <v>34</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="8" t="s">
         <v>341</v>
       </c>
     </row>
@@ -2770,13 +2776,13 @@
       <c r="A56">
         <v>36</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2806,13 +2812,13 @@
       <c r="A59">
         <v>39</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2820,25 +2826,25 @@
       <c r="A60">
         <v>40</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="12"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
         <v>41</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2860,13 +2866,13 @@
       <c r="A63">
         <v>43</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2874,10 +2880,10 @@
       <c r="A64">
         <v>44</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2885,10 +2891,10 @@
       <c r="A65">
         <v>45</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2896,10 +2902,10 @@
       <c r="A66">
         <v>46</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2907,10 +2913,10 @@
       <c r="A67">
         <v>47</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2918,10 +2924,10 @@
       <c r="A68">
         <v>48</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2929,10 +2935,10 @@
       <c r="A69">
         <v>49</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2940,13 +2946,13 @@
       <c r="A70">
         <v>50</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="5" t="s">
         <v>332</v>
       </c>
     </row>
@@ -2954,10 +2960,10 @@
       <c r="A71">
         <v>51</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2965,10 +2971,10 @@
       <c r="A72">
         <v>52</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2976,10 +2982,10 @@
       <c r="A73">
         <v>53</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2987,10 +2993,10 @@
       <c r="A74">
         <v>54</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2998,7 +3004,7 @@
       <c r="A75">
         <v>55</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>19</v>
       </c>
       <c r="C75" t="s">
@@ -3009,7 +3015,7 @@
       <c r="A76">
         <v>56</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>17</v>
       </c>
       <c r="C76" t="s">
@@ -3020,7 +3026,7 @@
       <c r="A77">
         <v>57</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77" t="s">
@@ -3031,7 +3037,7 @@
       <c r="A78">
         <v>58</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>13</v>
       </c>
       <c r="C78" t="s">
@@ -3042,7 +3048,7 @@
       <c r="A79">
         <v>59</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>12</v>
       </c>
       <c r="C79" t="s">
@@ -3053,7 +3059,7 @@
       <c r="A80">
         <v>60</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>10</v>
       </c>
       <c r="C80" t="s">
@@ -3103,13 +3109,13 @@
       <c r="A84">
         <v>4</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3117,13 +3123,13 @@
       <c r="A85">
         <v>5</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
@@ -3140,13 +3146,13 @@
       <c r="A87">
         <v>7</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3154,24 +3160,25 @@
       <c r="A88">
         <v>8</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
         <v>9</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="5" t="s">
         <v>352</v>
       </c>
     </row>
@@ -3179,13 +3186,13 @@
       <c r="A90">
         <v>10</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3233,24 +3240,24 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="3" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3271,13 +3278,13 @@
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="1"/>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
@@ -3304,13 +3311,13 @@
       </c>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>359</v>
       </c>
     </row>
@@ -3665,10 +3672,10 @@
       </c>
     </row>
     <row r="148" spans="2:4">
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3705,13 +3712,13 @@
       </c>
     </row>
     <row r="153" spans="2:4">
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="1" t="s">
         <v>347</v>
       </c>
     </row>
@@ -3884,230 +3891,258 @@
       </c>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C175" s="2"/>
+      <c r="C175" s="1"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C176" s="2"/>
+      <c r="C176" s="1"/>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C177" s="2"/>
+      <c r="C177" s="1"/>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C178" s="2"/>
+      <c r="C178" s="1"/>
     </row>
     <row r="179" spans="2:4">
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C187" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="D187" s="9" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="1" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="1" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="1" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="1" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="1" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="1" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="1" t="s">
         <v>405</v>
       </c>
     </row>
+    <row r="200" spans="1:3">
+      <c r="B200" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
     <row r="201" spans="1:3">
-      <c r="A201" t="s">
+      <c r="B201" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
         <v>5</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B205" t="s">
         <v>281</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C205" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202">
+    <row r="206" spans="1:3">
+      <c r="A206">
         <v>1</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B206" t="s">
         <v>3</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C206" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203">
+    <row r="207" spans="1:3">
+      <c r="A207">
         <v>2</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B207" t="s">
         <v>1</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C207" t="s">
         <v>0</v>
       </c>
     </row>
